--- a/mbs-perturbation/nano/welm/nano_welm_lin_results.xlsx
+++ b/mbs-perturbation/nano/welm/nano_welm_lin_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9188034188034188</v>
+        <v>0.9061032863849765</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.577233782129743</v>
+        <v>0.3384715025906736</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9358974358974359</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4085235920852359</v>
+        <v>0.3803846153846154</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8884120171673819</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47305834262356</v>
+        <v>0.5125956632653061</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9184549356223176</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4890555828824397</v>
+        <v>0.5092447916666667</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9055793991416309</v>
+        <v>0.8820754716981132</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.496984058595433</v>
+        <v>0.4249197860962567</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9134294413264371</v>
+        <v>0.9114669146957214</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4889710716632824</v>
+        <v>0.4331232718007037</v>
       </c>
     </row>
   </sheetData>
